--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43003,6 +43003,41 @@
         <v>3322700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6614200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43038,6 +43038,41 @@
         <v>6614200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>3044700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43073,6 +43073,41 @@
         <v>3044700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2533800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43108,6 +43108,41 @@
         <v>2533800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1142300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43143,6 +43143,41 @@
         <v>1142300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1143500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43178,6 +43178,41 @@
         <v>1143500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2334400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43213,6 +43213,41 @@
         <v>2334400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3522900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,6 +43248,41 @@
         <v>3522900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>546700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43283,6 +43283,41 @@
         <v>546700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2896400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43318,6 +43318,41 @@
         <v>2896400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2836500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43353,6 +43353,41 @@
         <v>2836500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2235100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43388,6 +43388,41 @@
         <v>2235100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5463100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43423,6 +43423,76 @@
         <v>5463100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2542200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8723400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43493,6 +43493,76 @@
         <v>8723400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2810100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4054100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43563,6 +43563,41 @@
         <v>4054100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4435000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43598,6 +43598,41 @@
         <v>4435000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1223100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         <v>1223100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>4212500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>4212500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9243400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,76 @@
         <v>9243400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>6626000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6135000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>6135000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>4952300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>4952300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3598400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87558,6 +87558,41 @@
         <v>3598400</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>6181100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87593,6 +87593,41 @@
         <v>6181100</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>1009900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87628,6 +87628,41 @@
         <v>1009900</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>2225000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87663,6 +87663,41 @@
         <v>2225000</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>2874500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87698,6 +87698,41 @@
         <v>2874500</v>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>1374100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87733,6 +87733,41 @@
         <v>1374100</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>779600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2496"/>
+  <dimension ref="A1:I2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87768,6 +87768,41 @@
         <v>779600</v>
       </c>
     </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>1464100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2497"/>
+  <dimension ref="A1:I2498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87803,6 +87803,41 @@
         <v>1464100</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>2286900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2498"/>
+  <dimension ref="A1:I2499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87838,6 +87838,41 @@
         <v>2286900</v>
       </c>
     </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>3710900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2499"/>
+  <dimension ref="A1:I2500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87873,6 +87873,41 @@
         <v>3710900</v>
       </c>
     </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>6019600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2500"/>
+  <dimension ref="A1:I2501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87908,6 +87908,41 @@
         <v>6019600</v>
       </c>
     </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>1355000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2501"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87943,6 +87943,41 @@
         <v>1355000</v>
       </c>
     </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>4971600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87978,6 +87978,41 @@
         <v>4971600</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>9207000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88013,6 +88013,41 @@
         <v>9207000</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>5156100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0051.xlsx
+++ b/data/0051.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88048,6 +88048,41 @@
         <v>5156100</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>0051</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>CUSCAPI</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>6115900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
